--- a/Excel Workbooks/100/100Pi5.xlsx
+++ b/Excel Workbooks/100/100Pi5.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\StatsProject\Excel Workbooks\100\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B31783C-B9A1-4AEE-AFBF-B1C0429FDF98}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +84,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +170,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +222,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,14 +415,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,40 +441,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.2635444365125915</v>
+        <v>0.26354443651259152</v>
       </c>
       <c r="B2">
-        <v>0.1380047883363336</v>
+        <v>0.13800478833633359</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>-0.1415926535897931</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.14159265358979309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.5307301511752338</v>
+        <v>0.53073015117523381</v>
       </c>
       <c r="B3">
-        <v>0.8716453716900182</v>
+        <v>0.87164537169001821</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>-4.507034144862795</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-4.5070341448627946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.8432222817877832</v>
+        <v>0.84322228178778325</v>
       </c>
       <c r="B4">
-        <v>0.3604975061980477</v>
+        <v>0.36049750619804771</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -428,780 +483,780 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.8679706475307236</v>
+        <v>0.86797064753072362</v>
       </c>
       <c r="B5">
-        <v>0.9655358463424916</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.96553584634249157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.58659775886878</v>
+        <v>0.58659775886877996</v>
       </c>
       <c r="B6">
-        <v>0.8725019073411395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.87250190734113953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.7721458712342333</v>
+        <v>0.77214587123423328</v>
       </c>
       <c r="B7">
-        <v>0.7252582024004094</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.72525820240040939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.05468913500308614</v>
+        <v>5.4689135003086142E-2</v>
       </c>
       <c r="B8">
-        <v>0.8503567115403092</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.85035671154030923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.630786321606512</v>
+        <v>0.63078632160651205</v>
       </c>
       <c r="B9">
-        <v>0.04907059063439445</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>4.9070590634394451E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.1412280324691986</v>
       </c>
       <c r="B10">
-        <v>0.3681299718816702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.36812997188167018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.555213940810515</v>
+        <v>0.55521394081051501</v>
       </c>
       <c r="B11">
-        <v>0.1310016849283356</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.13100168492833561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.6323451867984803</v>
+        <v>0.63234518679848029</v>
       </c>
       <c r="B12">
-        <v>0.8959442163537444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.89594421635374444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.7874118567100875</v>
+        <v>0.78741185671008751</v>
       </c>
       <c r="B13">
-        <v>0.06857395798503163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>6.8573957985031631E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.6206689804368271</v>
+        <v>0.62066898043682706</v>
       </c>
       <c r="B14">
-        <v>0.8298304430804928</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.82983044308049281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.753742966605303</v>
+        <v>0.75374296660530304</v>
       </c>
       <c r="B15">
-        <v>0.226588172775935</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.22658817277593499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.6383868804327467</v>
+        <v>0.63838688043274672</v>
       </c>
       <c r="B16">
-        <v>0.575049430474848</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.57504943047484802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.5177417743514403</v>
+        <v>0.51774177435144031</v>
       </c>
       <c r="B17">
-        <v>0.992173815197233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.99217381519723302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.2642363769084065</v>
+        <v>0.26423637690840651</v>
       </c>
       <c r="B18">
         <v>0.8092658246386033</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.2896688302556094</v>
+        <v>0.28966883025560941</v>
       </c>
       <c r="B19">
-        <v>0.9971260321785873</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.99712603217858731</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.8120321065532371</v>
       </c>
       <c r="B20">
-        <v>0.5533102440524755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.55331024405247553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.7292967808237353</v>
+        <v>0.72929678082373528</v>
       </c>
       <c r="B21">
-        <v>0.4135767558632698</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.41357675586326981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.9596378428760746</v>
+        <v>0.95963784287607456</v>
       </c>
       <c r="B22">
-        <v>0.928020239760047</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.92802023976004699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.9100090363019296</v>
+        <v>0.91000903630192964</v>
       </c>
       <c r="B23">
-        <v>0.3630446431202854</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.36304464312028539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.8001938032341295</v>
+        <v>0.80019380323412947</v>
       </c>
       <c r="B24">
         <v>0.7865991331937966</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.08704141463375614</v>
+        <v>8.7041414633756142E-2</v>
       </c>
       <c r="B25">
         <v>0.6731424019733323</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.5070800536114286</v>
+        <v>0.50708005361142861</v>
       </c>
       <c r="B26">
-        <v>0.7682500052548671</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.76825000525486709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.2865766491866378</v>
+        <v>0.28657664918663778</v>
       </c>
       <c r="B27">
-        <v>0.04670211706246774</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>4.6702117062467741E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.4711575489975821</v>
+        <v>0.47115754899758211</v>
       </c>
       <c r="B28">
         <v>0.3728848067154239</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.001942988932297607</v>
+        <v>1.942988932297607E-3</v>
       </c>
       <c r="B29">
-        <v>0.9329784697324245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.93297846973242449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.1562180969974231</v>
+        <v>0.15621809699742309</v>
       </c>
       <c r="B30">
-        <v>0.5371412155211031</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.53714121552110305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.00789191189059113</v>
+        <v>7.8919118905911301E-3</v>
       </c>
       <c r="B31">
-        <v>0.3288004538647477</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.32880045386474771</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.07000768791895484</v>
+        <v>7.0007687918954842E-2</v>
       </c>
       <c r="B32">
-        <v>0.3262082128953422</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.32620821289534219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.2208067141578166</v>
+        <v>0.22080671415781661</v>
       </c>
       <c r="B33">
-        <v>0.5605226328962566</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.56052263289625659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.3580122968763305</v>
+        <v>0.35801229687633052</v>
       </c>
       <c r="B34">
-        <v>0.074422078397269</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>7.4422078397268998E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.4669100292913566</v>
+        <v>0.46691002929135661</v>
       </c>
       <c r="B35">
-        <v>0.8960707119774524</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.89607071197745236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.6901559511702149</v>
+        <v>0.69015595117021489</v>
       </c>
       <c r="B36">
-        <v>0.7137613314893099</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.71376133148930987</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.1020592756727464</v>
+        <v>0.10205927567274641</v>
       </c>
       <c r="B37">
-        <v>0.4539683442987001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.45396834429870009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.7341580386753748</v>
+        <v>0.73415803867537477</v>
       </c>
       <c r="B38">
-        <v>0.6796731986777643</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.67967319867776432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.4827889690987859</v>
+        <v>0.48278896909878588</v>
       </c>
       <c r="B39">
-        <v>0.7157253488206139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.71572534882061389</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.1428700279057235</v>
+        <v>0.14287002790572351</v>
       </c>
       <c r="B40">
-        <v>0.5329701699620897</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.53297016996208968</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.4016040508654751</v>
+        <v>0.40160405086547513</v>
       </c>
       <c r="B41">
         <v>0.8994025580883791</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.5790820884444551</v>
+        <v>0.57908208844445508</v>
       </c>
       <c r="B42">
         <v>0.1500310342256739</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.7361064807373805</v>
       </c>
       <c r="B43">
-        <v>0.6032590402532162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.60325904025321619</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.1855451024647834</v>
       </c>
       <c r="B44">
-        <v>0.6606409036006015</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.66064090360060146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.3797800697825813</v>
+        <v>0.37978006978258128</v>
       </c>
       <c r="B45">
-        <v>0.4004628195070672</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>0.40046281950706719</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.09851416001039293</v>
+        <v>9.8514160010392926E-2</v>
       </c>
       <c r="B46">
-        <v>0.3952161150937313</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.39521611509373128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.8718923299159613</v>
+        <v>0.87189232991596133</v>
       </c>
       <c r="B47">
-        <v>0.8079648812413401</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.80796488124134014</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.7612125717726315</v>
+        <v>0.76121257177263146</v>
       </c>
       <c r="B48">
-        <v>0.8976617285753267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.89766172857532667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.6028880421686631</v>
       </c>
       <c r="B49">
-        <v>0.9881758880526956</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.98817588805269563</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.4817101300858347</v>
+        <v>0.48171013008583469</v>
       </c>
       <c r="B50">
         <v>0.8437141091426934</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.9100776796912923</v>
+        <v>0.91007767969129227</v>
       </c>
       <c r="B51">
-        <v>0.008570415455657288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>8.5704154556572876E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.3585477953047052</v>
+        <v>0.35854779530470521</v>
       </c>
       <c r="B52">
         <v>0.296376655681998</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.9008343739784603</v>
+        <v>0.90083437397846033</v>
       </c>
       <c r="B53">
-        <v>0.504531996201354</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.50453199620135403</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.8353626065520221</v>
       </c>
       <c r="B54">
-        <v>0.2550522639510471</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.25505226395104708</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.3552529868123472</v>
+        <v>0.35525298681234718</v>
       </c>
       <c r="B55">
-        <v>0.5064281740006578</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.50642817400065776</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.7872471893754043</v>
+        <v>0.78724718937540428</v>
       </c>
       <c r="B56">
-        <v>0.5368749998847986</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.53687499988479859</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.1747569077874734</v>
+        <v>0.17475690778747341</v>
       </c>
       <c r="B57">
-        <v>0.5985401261869976</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>0.59854012618699759</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.7688480536058363</v>
       </c>
       <c r="B58">
-        <v>0.9628266923276469</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.96282669232764695</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.2701607030734725</v>
+        <v>0.27016070307347251</v>
       </c>
       <c r="B59">
-        <v>0.283541786265086</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.28354178626508603</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.4137056433041985</v>
+        <v>0.41370564330419851</v>
       </c>
       <c r="B60">
-        <v>0.8863051677527652</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.88630516775276524</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.6224884136224771</v>
+        <v>0.62248841362247709</v>
       </c>
       <c r="B61">
         <v>0.5202955466169864</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.6465096178299171</v>
+        <v>0.64650961782991712</v>
       </c>
       <c r="B62">
-        <v>0.2137128617143849</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.21371286171438489</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.4717958372662383</v>
       </c>
       <c r="B63">
-        <v>0.2698712619304321</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.26987126193043209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.8714143144021578</v>
+        <v>0.87141431440215777</v>
       </c>
       <c r="B64">
-        <v>0.5097202639964495</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.50972026399644954</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.13523062101632</v>
       </c>
       <c r="B65">
-        <v>0.2557831121708929</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.25578311217089289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.621015883389464</v>
+        <v>0.62101588338946401</v>
       </c>
       <c r="B66">
-        <v>0.4873246509962016</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.48732465099620159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.4437022017353377</v>
       </c>
       <c r="B67">
-        <v>0.06127109322572144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>6.127109322572144E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.8821042632986883</v>
       </c>
       <c r="B68">
-        <v>0.3375025756093342</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.33750257560933422</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.2850981254240905</v>
+        <v>0.28509812542409052</v>
       </c>
       <c r="B69">
-        <v>0.4989261661744615</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.49892616617446151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.4493425668061668</v>
       </c>
       <c r="B70">
-        <v>0.9254566072622745</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.92545660726227452</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.34244427269699</v>
+        <v>0.34244427269699002</v>
       </c>
       <c r="B71">
-        <v>0.6171353688665903</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.61713536886659026</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.00812949930416107</v>
+        <v>8.1294993041610697E-3</v>
       </c>
       <c r="B72">
         <v>0.9639483129914741</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.7374717137504704</v>
+        <v>0.73747171375047038</v>
       </c>
       <c r="B73">
-        <v>0.4219917485055228</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.42199174850552279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.7976576697976777</v>
+        <v>0.79765766979767772</v>
       </c>
       <c r="B74">
-        <v>0.2833710457015219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.28337104570152188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.7034982563017549</v>
+        <v>0.70349825630175489</v>
       </c>
       <c r="B75">
-        <v>0.6472215877361576</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.64722158773615757</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.2564203173790068</v>
+        <v>0.25642031737900678</v>
       </c>
       <c r="B76">
-        <v>0.643106505108499</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.64310650510849898</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.7568819176349866</v>
+        <v>0.75688191763498658</v>
       </c>
       <c r="B77">
-        <v>0.7055839184461979</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.70558391844619794</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.3317462611453048</v>
+        <v>0.33174626114530481</v>
       </c>
       <c r="B78">
-        <v>0.6560520456029693</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.65605204560296926</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.8450124751698339</v>
+        <v>0.84501247516983391</v>
       </c>
       <c r="B79">
         <v>0.1010069022966167</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.09613458981661005</v>
+        <v>9.613458981661005E-2</v>
       </c>
       <c r="B80">
-        <v>0.4998304750922379</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.49983047509223788</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0.7569846804538939</v>
+        <v>0.75698468045389389</v>
       </c>
       <c r="B81">
-        <v>0.7455034898272875</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.74550348982728754</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.03772439974084552</v>
+        <v>3.7724399740845523E-2</v>
       </c>
       <c r="B82">
-        <v>0.8629467782464671</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.86294677824646715</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.7110704047125954</v>
+        <v>0.71107040471259542</v>
       </c>
       <c r="B83">
         <v>0.1064292411748063</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.9919142176189968</v>
+        <v>0.99191421761899679</v>
       </c>
       <c r="B84">
-        <v>0.8254330544388448</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.82543305443884485</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.4608796616854968</v>
+        <v>0.46087966168549682</v>
       </c>
       <c r="B85">
-        <v>0.3575977006488608</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.35759770064886082</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.7578974424244306</v>
+        <v>0.75789744242443058</v>
       </c>
       <c r="B86">
-        <v>0.1461463603045942</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.14614636030459419</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0.1872142036702715</v>
       </c>
       <c r="B87">
-        <v>0.6763263436670027</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.67632634366700273</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.1662563696411877</v>
       </c>
       <c r="B88">
-        <v>0.4016014447903727</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.40160144479037269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0.02923939772825834</v>
+        <v>2.9239397728258339E-2</v>
       </c>
       <c r="B89">
-        <v>0.3000873159574395</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.30008731595743948</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0.01356323428370643</v>
+        <v>1.356323428370643E-2</v>
       </c>
       <c r="B90">
-        <v>0.9524585578449145</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.95245855784491451</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.1676429498299952</v>
       </c>
       <c r="B91">
-        <v>0.2033913184228555</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.20339131842285549</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0.1459344469410501</v>
+        <v>0.14593444694105009</v>
       </c>
       <c r="B92">
-        <v>0.2935918026940609</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.29359180269406088</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.1917603051851953</v>
       </c>
       <c r="B93">
-        <v>0.3744833409047835</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.37448334090478352</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.2277786414408193</v>
       </c>
       <c r="B94">
-        <v>0.8441205893584731</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.84412058935847312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>0.8820040323000797</v>
+        <v>0.88200403230007973</v>
       </c>
       <c r="B95">
-        <v>0.4209992697493745</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.42099926974937452</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0.9626220633137955</v>
+        <v>0.96262206331379552</v>
       </c>
       <c r="B96">
-        <v>0.9416054806790012</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>0.94160548067900118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0.5814013621687849</v>
+        <v>0.58140136216878491</v>
       </c>
       <c r="B97">
         <v>0.272658859883951</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0.6505933533208378</v>
+        <v>0.65059335332083779</v>
       </c>
       <c r="B98">
-        <v>0.8528418553726588</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.85284185537265877</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.9129828382983771</v>
+        <v>0.91298283829837712</v>
       </c>
       <c r="B99">
-        <v>0.7909235913134735</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.79092359131347345</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.8342530329788483</v>
+        <v>0.83425303297884834</v>
       </c>
       <c r="B100">
-        <v>0.3005547173437667</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>0.30055471734376671</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.1861023850201814</v>
+        <v>0.18610238502018139</v>
       </c>
       <c r="B101">
-        <v>0.8353830468789755</v>
+        <v>0.83538304687897547</v>
       </c>
     </row>
   </sheetData>
